--- a/county_gis.xlsx
+++ b/county_gis.xlsx
@@ -1124,7 +1124,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>فريدن</t>
+          <t>فريدونشهر</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1132,53 +1132,53 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10.70408938486205</v>
+        <v>18.68926059888916</v>
       </c>
       <c r="I10" t="n">
-        <v>19.29445620952525</v>
+        <v>18.46064674366858</v>
       </c>
       <c r="J10" t="n">
-        <v>9.08245133321755</v>
+        <v>13.14731469173765</v>
       </c>
       <c r="K10" t="n">
-        <v>6.111255091934993</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="L10" t="n">
-        <v>14.85200352253987</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="M10" t="n">
-        <v>17.31696977598748</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="N10" t="n">
-        <v>33.00629151729949</v>
+        <v>13.63636363636364</v>
       </c>
       <c r="O10" t="n">
-        <v>19.47472319972535</v>
+        <v>5.00220361392684</v>
       </c>
       <c r="P10" t="n">
-        <v>14.51938158189559</v>
+        <v>21.59881881459608</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.83279298645451</v>
+        <v>49.91723448757663</v>
       </c>
       <c r="R10" t="n">
-        <v>12.86958475599547</v>
+        <v>39.40697739192439</v>
       </c>
       <c r="S10" t="n">
-        <v>19.52105575326216</v>
+        <v>28.00747974236443</v>
       </c>
       <c r="T10" t="n">
-        <v>4.40735595686059</v>
+        <v>11.86325145953042</v>
       </c>
       <c r="U10" t="n">
-        <v>3.937224497475914</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>4.112931334959916</v>
+        <v>22.48818574070269</v>
       </c>
     </row>
     <row r="11">
@@ -4078,7 +4078,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>کوار</t>
+          <t>كوثر</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4086,47 +4086,53 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0728</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+          <t>2407</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2.846886692669276</v>
+      </c>
+      <c r="I50" t="n">
+        <v>10.93484748203175</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="n">
-        <v>2.875976856526921</v>
+        <v>15.45358143957067</v>
       </c>
       <c r="L50" t="n">
-        <v>4.311569635809951</v>
+        <v>8.591465787887619</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>13.85806046056917</v>
       </c>
       <c r="N50" t="n">
-        <v>5.340246807371449</v>
+        <v>15.71451035547887</v>
       </c>
       <c r="O50" t="n">
-        <v>2.961980548187445</v>
+        <v>5.82978138319813</v>
       </c>
       <c r="P50" t="n">
-        <v>3.103363006923838</v>
+        <v>4.803688280785247</v>
       </c>
       <c r="Q50" t="n">
-        <v>12.42792376573599</v>
+        <v>10.0544658376325</v>
       </c>
       <c r="R50" t="n">
-        <v>3.193794450548119</v>
+        <v>7.924190337637123</v>
       </c>
       <c r="S50" t="n">
-        <v>11.91502954799553</v>
+        <v>7.134999214207135</v>
       </c>
       <c r="T50" t="n">
-        <v>10.27722740028747</v>
+        <v>5.828840439933191</v>
       </c>
       <c r="U50" t="n">
-        <v>8.340359589829923</v>
+        <v>3.057785809547667</v>
       </c>
       <c r="V50" t="n">
-        <v>8.333010348436106</v>
+        <v>1.551380586393396</v>
       </c>
     </row>
     <row r="51">
@@ -15114,7 +15120,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>بهار</t>
+          <t>چاه بهار</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -15122,53 +15128,53 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="H201" t="n">
-        <v>16.50477576884107</v>
+        <v>0.799739176767813</v>
       </c>
       <c r="I201" t="n">
-        <v>6.910156389500269</v>
+        <v>14.85900536040922</v>
       </c>
       <c r="J201" t="n">
-        <v>8.935931915799818</v>
+        <v>40.77527896559369</v>
       </c>
       <c r="K201" t="n">
-        <v>13.27623567138139</v>
+        <v>12.20482692807013</v>
       </c>
       <c r="L201" t="n">
-        <v>6.900514244144354</v>
+        <v>11.51054461990833</v>
       </c>
       <c r="M201" t="n">
-        <v>16.35944512679754</v>
+        <v>12.36428384763282</v>
       </c>
       <c r="N201" t="n">
-        <v>16.95522394065627</v>
+        <v>15.80123329632491</v>
       </c>
       <c r="O201" t="n">
-        <v>10.40529786266485</v>
+        <v>15.50277053455019</v>
       </c>
       <c r="P201" t="n">
-        <v>40.95630179743839</v>
+        <v>10.69374038844905</v>
       </c>
       <c r="Q201" t="n">
-        <v>4.066645201625131</v>
+        <v>3.282032641408597</v>
       </c>
       <c r="R201" t="n">
-        <v>2.33943253406891</v>
+        <v>6.57164912826128</v>
       </c>
       <c r="S201" t="n">
-        <v>6.769641985144825</v>
+        <v>8.307719891399005</v>
       </c>
       <c r="T201" t="n">
-        <v>14.83561158292568</v>
+        <v>12.28462122836632</v>
       </c>
       <c r="U201" t="n">
-        <v>12.66878043719605</v>
+        <v>17.88930186055613</v>
       </c>
       <c r="V201" t="n">
-        <v>11.72210019872398</v>
+        <v>10.64322831328121</v>
       </c>
     </row>
     <row r="202">
@@ -17988,7 +17994,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>ميانه</t>
+          <t>مانه وسملقان</t>
         </is>
       </c>
       <c r="F240" t="n">
@@ -17996,53 +18002,53 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>0310</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="H240" t="n">
-        <v>11.61016807007289</v>
+        <v>18.8036261969601</v>
       </c>
       <c r="I240" t="n">
-        <v>25.72067880555311</v>
+        <v>22.41615918239556</v>
       </c>
       <c r="J240" t="n">
-        <v>8.204854364782117</v>
+        <v>22.96068943699286</v>
       </c>
       <c r="K240" t="n">
-        <v>9.617898435229929</v>
+        <v>19.4304113488616</v>
       </c>
       <c r="L240" t="n">
-        <v>10.37903094165084</v>
+        <v>19.07958770797936</v>
       </c>
       <c r="M240" t="n">
-        <v>24.2688841093773</v>
+        <v>8.132378171623769</v>
       </c>
       <c r="N240" t="n">
-        <v>6.791643950189489</v>
+        <v>10.40153478486384</v>
       </c>
       <c r="O240" t="n">
-        <v>5.378924215156969</v>
+        <v>8.939405014253344</v>
       </c>
       <c r="P240" t="n">
-        <v>5.197736306676548</v>
+        <v>9.702466845323988</v>
       </c>
       <c r="Q240" t="n">
-        <v>3.501567436310336</v>
+        <v>8.195013526786642</v>
       </c>
       <c r="R240" t="n">
-        <v>7.892897460350793</v>
+        <v>6.759416379603661</v>
       </c>
       <c r="S240" t="n">
-        <v>10.5480935525061</v>
+        <v>6.880795143752919</v>
       </c>
       <c r="T240" t="n">
-        <v>14.00372493356804</v>
+        <v>11.17509920301914</v>
       </c>
       <c r="U240" t="n">
-        <v>4.379435713291008</v>
+        <v>3.148572584285268</v>
       </c>
       <c r="V240" t="n">
-        <v>6.114735587478829</v>
+        <v>1.073680063041765</v>
       </c>
     </row>
     <row r="241">
@@ -19906,7 +19912,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>اسکو</t>
+          <t>جاسك</t>
         </is>
       </c>
       <c r="F266" t="n">
@@ -19914,53 +19920,53 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>0322</t>
+          <t>2206</t>
         </is>
       </c>
       <c r="H266" t="n">
-        <v>12.78722019732228</v>
+        <v>7.623087778945807</v>
       </c>
       <c r="I266" t="n">
-        <v>12.53921027895539</v>
+        <v>1.048704153863894</v>
       </c>
       <c r="J266" t="n">
-        <v>6.002210914077994</v>
+        <v>1.541541679915918</v>
       </c>
       <c r="K266" t="n">
-        <v>13.91236767511947</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
-        <v>7.909711946917078</v>
+        <v>2.091191991939111</v>
       </c>
       <c r="M266" t="n">
-        <v>13.93228733919239</v>
+        <v>7.001982914053828</v>
       </c>
       <c r="N266" t="n">
-        <v>6.009759344274793</v>
+        <v>9.98016832356047</v>
       </c>
       <c r="O266" t="n">
-        <v>3.84950357080648</v>
+        <v>21.58911265379064</v>
       </c>
       <c r="P266" t="n">
-        <v>4.797893049353029</v>
+        <v>5.814961605152341</v>
       </c>
       <c r="Q266" t="n">
-        <v>13.33709553902059</v>
+        <v>16.01140279054002</v>
       </c>
       <c r="R266" t="n">
-        <v>6.330302728909838</v>
+        <v>12.6765948879586</v>
       </c>
       <c r="S266" t="n">
-        <v>6.356600520852437</v>
+        <v>24.79695870053568</v>
       </c>
       <c r="T266" t="n">
-        <v>12.70042170650128</v>
+        <v>10.12738163602221</v>
       </c>
       <c r="U266" t="n">
-        <v>11.90553736114768</v>
+        <v>5.186751416449054</v>
       </c>
       <c r="V266" t="n">
-        <v>2.350033074539568</v>
+        <v>6.013411204845339</v>
       </c>
     </row>
     <row r="267">
@@ -21010,7 +21016,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>هريس</t>
+          <t>رئ</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -21018,53 +21024,53 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>0316</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="H281" t="n">
-        <v>22.86610432366255</v>
+        <v>8.217210463337468</v>
       </c>
       <c r="I281" t="n">
-        <v>42.06970538611012</v>
+        <v>1.195527119946217</v>
       </c>
       <c r="J281" t="n">
-        <v>16.75319641216886</v>
+        <v>5.360191058507169</v>
       </c>
       <c r="K281" t="n">
-        <v>20.72491591561984</v>
+        <v>11.89008240755822</v>
       </c>
       <c r="L281" t="n">
-        <v>16.78816238559292</v>
+        <v>7.0112374574908</v>
       </c>
       <c r="M281" t="n">
-        <v>23.85754753901838</v>
+        <v>6.852499900015016</v>
       </c>
       <c r="N281" t="n">
-        <v>6.356348821361328</v>
+        <v>4.595382381399834</v>
       </c>
       <c r="O281" t="n">
-        <v>8.603395061728394</v>
+        <v>4.760323259160855</v>
       </c>
       <c r="P281" t="n">
-        <v>5.114763389062057</v>
+        <v>0.7710194590625383</v>
       </c>
       <c r="Q281" t="n">
-        <v>7.487421240195123</v>
+        <v>0.7624788436095847</v>
       </c>
       <c r="R281" t="n">
-        <v>12.52817432538575</v>
+        <v>0</v>
       </c>
       <c r="S281" t="n">
-        <v>19.51052775499043</v>
+        <v>0</v>
       </c>
       <c r="T281" t="n">
-        <v>18.31700213198806</v>
+        <v>0</v>
       </c>
       <c r="U281" t="n">
-        <v>7.370441376755654</v>
+        <v>3.184030588917639</v>
       </c>
       <c r="V281" t="n">
-        <v>9.145910616498853</v>
+        <v>8.411671468304208</v>
       </c>
     </row>
     <row r="282">
@@ -24708,7 +24714,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>کوار</t>
+          <t>كيار</t>
         </is>
       </c>
       <c r="F332" t="n">
@@ -24716,47 +24722,47 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>0728</t>
+          <t>1407</t>
         </is>
       </c>
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="n">
-        <v>2.875976856526921</v>
+        <v>9.652162340557865</v>
       </c>
       <c r="L332" t="n">
-        <v>4.311569635809951</v>
+        <v>7.932443166505561</v>
       </c>
       <c r="M332" t="n">
-        <v>0</v>
+        <v>10.12067293294866</v>
       </c>
       <c r="N332" t="n">
-        <v>5.340246807371449</v>
+        <v>5.123740833813479</v>
       </c>
       <c r="O332" t="n">
-        <v>2.961980548187445</v>
+        <v>3.098302152049313</v>
       </c>
       <c r="P332" t="n">
-        <v>3.103363006923838</v>
+        <v>5.150161330354927</v>
       </c>
       <c r="Q332" t="n">
-        <v>12.42792376573599</v>
+        <v>7.30662794785786</v>
       </c>
       <c r="R332" t="n">
-        <v>3.193794450548119</v>
+        <v>5.966043846827061</v>
       </c>
       <c r="S332" t="n">
-        <v>11.91502954799553</v>
+        <v>0.8519701810436635</v>
       </c>
       <c r="T332" t="n">
-        <v>10.27722740028747</v>
+        <v>1.036473150983025</v>
       </c>
       <c r="U332" t="n">
-        <v>8.340359589829923</v>
+        <v>1.754479207515887</v>
       </c>
       <c r="V332" t="n">
-        <v>8.333010348436106</v>
+        <v>1.780212256076686</v>
       </c>
     </row>
     <row r="333">
@@ -26110,7 +26116,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>مهران</t>
+          <t>زابلي</t>
         </is>
       </c>
       <c r="F352" t="n">
@@ -26118,53 +26124,47 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>1605</t>
-        </is>
-      </c>
-      <c r="H352" t="n">
-        <v>16.78338737760922</v>
-      </c>
-      <c r="I352" t="n">
-        <v>5.681661375652403</v>
-      </c>
-      <c r="J352" t="n">
-        <v>2.579806442394793</v>
-      </c>
+          <t>1113</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr"/>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="n">
-        <v>3.499386943145451</v>
+        <v>2.426481681125171</v>
       </c>
       <c r="L352" t="n">
-        <v>1.604419555148737</v>
+        <v>4.040242161006697</v>
       </c>
       <c r="M352" t="n">
-        <v>0</v>
+        <v>1.860448119155564</v>
       </c>
       <c r="N352" t="n">
-        <v>3.742898628181235</v>
+        <v>0.8493923883700887</v>
       </c>
       <c r="O352" t="n">
-        <v>2.279340446168768</v>
+        <v>6.925323320817689</v>
       </c>
       <c r="P352" t="n">
-        <v>1.571396037349123</v>
+        <v>10.718789407314</v>
       </c>
       <c r="Q352" t="n">
-        <v>4.766117656792672</v>
+        <v>11.36548854509387</v>
       </c>
       <c r="R352" t="n">
-        <v>1.925362017998567</v>
+        <v>12.23113073534092</v>
       </c>
       <c r="S352" t="n">
-        <v>1.517094017094017</v>
+        <v>13.77122979332924</v>
       </c>
       <c r="T352" t="n">
-        <v>7.142857142857144</v>
+        <v>36.09351776105657</v>
       </c>
       <c r="U352" t="n">
-        <v>0.7284569163974793</v>
+        <v>20.23471317166935</v>
       </c>
       <c r="V352" t="n">
-        <v>0</v>
+        <v>14.43318496069704</v>
       </c>
     </row>
     <row r="353">
@@ -26326,7 +26326,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>کنگاور</t>
+          <t>كنارك</t>
         </is>
       </c>
       <c r="F355" t="n">
@@ -26334,53 +26334,53 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>0507</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="H355" t="n">
-        <v>11.60141282944566</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
-        <v>8.572496067190922</v>
+        <v>9.512565271009031</v>
       </c>
       <c r="J355" t="n">
-        <v>20.81745756333483</v>
+        <v>26.70340077185859</v>
       </c>
       <c r="K355" t="n">
-        <v>14.95049105770679</v>
+        <v>15.18947480934794</v>
       </c>
       <c r="L355" t="n">
-        <v>15.48446251293074</v>
+        <v>15.87118366171817</v>
       </c>
       <c r="M355" t="n">
-        <v>20.59532030366969</v>
+        <v>9.089403716751052</v>
       </c>
       <c r="N355" t="n">
-        <v>16.80449079444599</v>
+        <v>19.85009108966904</v>
       </c>
       <c r="O355" t="n">
-        <v>14.57303137336381</v>
+        <v>15.3582026282323</v>
       </c>
       <c r="P355" t="n">
-        <v>13.81488142540466</v>
+        <v>10.33192708747911</v>
       </c>
       <c r="Q355" t="n">
-        <v>14.56661121844972</v>
+        <v>7.961087105109097</v>
       </c>
       <c r="R355" t="n">
-        <v>3.731108318134091</v>
+        <v>15.41501838297902</v>
       </c>
       <c r="S355" t="n">
-        <v>14.31788026215271</v>
+        <v>14.19217186580341</v>
       </c>
       <c r="T355" t="n">
-        <v>9.067720825017208</v>
+        <v>18.28751093251109</v>
       </c>
       <c r="U355" t="n">
-        <v>9.644089662863783</v>
+        <v>16.68683437307922</v>
       </c>
       <c r="V355" t="n">
-        <v>3.297682709447415</v>
+        <v>6.216984965461195</v>
       </c>
     </row>
     <row r="356">
@@ -31186,61 +31186,45 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>راور</t>
+          <t>راز و جرگلان</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>0811</t>
-        </is>
-      </c>
-      <c r="H428" t="n">
-        <v>6.746435044379869</v>
-      </c>
-      <c r="I428" t="n">
-        <v>2.436649257087654</v>
-      </c>
-      <c r="J428" t="n">
-        <v>23.64915410602526</v>
-      </c>
-      <c r="K428" t="n">
-        <v>1.951292030560186</v>
-      </c>
-      <c r="L428" t="n">
-        <v>19.60380387293837</v>
-      </c>
-      <c r="M428" t="n">
-        <v>14.77405687608341</v>
-      </c>
-      <c r="N428" t="n">
-        <v>7.800886233404089</v>
-      </c>
-      <c r="O428" t="n">
-        <v>11.71758316361168</v>
-      </c>
+          <t>2808</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr"/>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="inlineStr"/>
+      <c r="M428" t="inlineStr"/>
+      <c r="N428" t="inlineStr"/>
+      <c r="O428" t="inlineStr"/>
       <c r="P428" t="n">
-        <v>8.647130822953416</v>
+        <v>11.03233830845771</v>
       </c>
       <c r="Q428" t="n">
-        <v>6.267375558562445</v>
+        <v>7.397588338662358</v>
       </c>
       <c r="R428" t="n">
-        <v>6.993497620120867</v>
+        <v>4.894959696200115</v>
       </c>
       <c r="S428" t="n">
-        <v>0</v>
+        <v>3.712932967854473</v>
       </c>
       <c r="T428" t="n">
-        <v>0</v>
+        <v>11.7895832810631</v>
       </c>
       <c r="U428" t="n">
-        <v>0</v>
+        <v>1.287751146414754</v>
       </c>
       <c r="V428" t="n">
-        <v>0</v>
+        <v>1.342451874366768</v>
       </c>
     </row>
     <row r="429">
